--- a/biology/Zoologie/Ara_canindé/Ara_canindé.xlsx
+++ b/biology/Zoologie/Ara_canindé/Ara_canindé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ara_canind%C3%A9</t>
+          <t>Ara_canindé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ara glaucogularis · Ara à gorge bleue
-L'Ara canindé (Ara glaucogularis) ou Ara à gorge bleue, est une espèce d'oiseau appartenant à la famille des Psittacidae. L'humaniste Jean de Léry en fait mention dans son Histoire d'un voyage faict en la terre du Brésil en 1578, sous le nom de « canidé »[1]. On appelle aussi canindé au Brésil l'ara bleu (ararauana)
+L'Ara canindé (Ara glaucogularis) ou Ara à gorge bleue, est une espèce d'oiseau appartenant à la famille des Psittacidae. L'humaniste Jean de Léry en fait mention dans son Histoire d'un voyage faict en la terre du Brésil en 1578, sous le nom de « canidé ». On appelle aussi canindé au Brésil l'ara bleu (ararauana)
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ara_canind%C3%A9</t>
+          <t>Ara_canindé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau ressemble superficiellement à l'Ara bleu. Il s'en distingue par l'absence de coloration verte au niveau du front et de la calotte remplacée par une nuance bleu ciel, les zones de peau nue blanche autour des yeux entièrement couvertes de nombreuses stries bleues et surtout la gorge bleue (au lieu de noire), coloration beaucoup plus étendue à ce niveau que le noir chez l'Ara bleu.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ara_canind%C3%A9</t>
+          <t>Ara_canindé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ara à gorge bleue est endémique de Bolivie. Il habite une gigantesque zone peu peuplée et difficilement explorable, les savanes inondables du Béni. Dans ces conditions, il est difficile de préciser la distribution exacte de l'espèce. Cependant, l'association Armonia, portant ses efforts sur cet aspect, a plus que doublé le nombre de sites connus pour héberger cet Ara et a même découvert une nouvelle zone d'extension située à l'ouest du Rio Mamoré et de l'aire historique de répartition aux environs de la ville de Trinidad. Malgré la distance qui sépare les deux populations, il n'est pas impossible que des échanges aient lieu grâce à une chaîne d'îlots forestiers[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ara à gorge bleue est endémique de Bolivie. Il habite une gigantesque zone peu peuplée et difficilement explorable, les savanes inondables du Béni. Dans ces conditions, il est difficile de préciser la distribution exacte de l'espèce. Cependant, l'association Armonia, portant ses efforts sur cet aspect, a plus que doublé le nombre de sites connus pour héberger cet Ara et a même découvert une nouvelle zone d'extension située à l'ouest du Rio Mamoré et de l'aire historique de répartition aux environs de la ville de Trinidad. Malgré la distance qui sépare les deux populations, il n'est pas impossible que des échanges aient lieu grâce à une chaîne d'îlots forestiers.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ara_canind%C3%A9</t>
+          <t>Ara_canindé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit entre autres du mésocarpe des palmiers Attalea et Acrocomia.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ara_canind%C3%A9</t>
+          <t>Ara_canindé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Menaces et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est en danger critique d'extinction. La menace principale pesant sur elle est le trafic illégal des oisillons et des oiseaux adultes pour le commerce des oiseaux de volière, ceci malgré une protection officielle tant au niveau local qu'international. Avec le soutien financier de la Cepa et du CDE, les responsables d'Armonia ont le projet de construire un écolodge du même type que celui édifié pour l'Ara de Lafresnaye, structure qui serait également une station de recherches pour des universitaires boliviens. Sensibiliser les habitants des petites villes et des villages présents dans l'aire de répartition de l'Ara à gorge bleue est également une préoccupation d'Armonia : centres d'information, ateliers d'éducation environnementale et programmes radiophoniques sont envisagés. Le but est également d'identifier les problèmes humains qui contribuent au déclin de cet ara et, en coopération avec les habitants, de chercher des solutions à court terme pour conserver l'espèce[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est en danger critique d'extinction. La menace principale pesant sur elle est le trafic illégal des oisillons et des oiseaux adultes pour le commerce des oiseaux de volière, ceci malgré une protection officielle tant au niveau local qu'international. Avec le soutien financier de la Cepa et du CDE, les responsables d'Armonia ont le projet de construire un écolodge du même type que celui édifié pour l'Ara de Lafresnaye, structure qui serait également une station de recherches pour des universitaires boliviens. Sensibiliser les habitants des petites villes et des villages présents dans l'aire de répartition de l'Ara à gorge bleue est également une préoccupation d'Armonia : centres d'information, ateliers d'éducation environnementale et programmes radiophoniques sont envisagés. Le but est également d'identifier les problèmes humains qui contribuent au déclin de cet ara et, en coopération avec les habitants, de chercher des solutions à court terme pour conserver l'espèce.
 </t>
         </is>
       </c>
